--- a/data/add-ons/add_factors_new_medicaid.xlsx
+++ b/data/add-ons/add_factors_new_medicaid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/add-ons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE85A04D-9286-8E44-A190-BFB123049057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E763444-F3CA-414F-8156-9A00FD5864D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3493,6 +3493,9 @@
     </xf>
     <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="27" fillId="16" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3568,6 +3571,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3589,36 +3607,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4129,7 +4129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -4156,86 +4156,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="328" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="327"/>
+      <c r="B1" s="328"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
         <v>374</v>
       </c>
-      <c r="AC1" s="333" t="s">
+      <c r="AC1" s="334" t="s">
         <v>248</v>
       </c>
-      <c r="AD1" s="333"/>
-      <c r="AE1" s="331" t="s">
+      <c r="AD1" s="334"/>
+      <c r="AE1" s="332" t="s">
         <v>246</v>
       </c>
-      <c r="AF1" s="332"/>
+      <c r="AF1" s="333"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="329" t="s">
+      <c r="AI1" s="330" t="s">
         <v>279</v>
       </c>
-      <c r="AJ1" s="329"/>
-      <c r="AK1" s="329"/>
-      <c r="AL1" s="329"/>
-      <c r="AM1" s="328" t="s">
+      <c r="AJ1" s="330"/>
+      <c r="AK1" s="330"/>
+      <c r="AL1" s="330"/>
+      <c r="AM1" s="329" t="s">
         <v>277</v>
       </c>
-      <c r="AN1" s="328"/>
-      <c r="AO1" s="328"/>
-      <c r="AP1" s="328"/>
+      <c r="AN1" s="329"/>
+      <c r="AO1" s="329"/>
+      <c r="AP1" s="329"/>
     </row>
     <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="326" t="s">
+      <c r="F2" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326" t="s">
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326" t="s">
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="327" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
-      <c r="R2" s="326" t="s">
+      <c r="O2" s="327"/>
+      <c r="P2" s="327"/>
+      <c r="Q2" s="327"/>
+      <c r="R2" s="327" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="326"/>
-      <c r="T2" s="326"/>
-      <c r="U2" s="326"/>
-      <c r="V2" s="326" t="s">
+      <c r="S2" s="327"/>
+      <c r="T2" s="327"/>
+      <c r="U2" s="327"/>
+      <c r="V2" s="327" t="s">
         <v>266</v>
       </c>
-      <c r="W2" s="326"/>
-      <c r="X2" s="326"/>
-      <c r="Y2" s="326"/>
+      <c r="W2" s="327"/>
+      <c r="X2" s="327"/>
+      <c r="Y2" s="327"/>
       <c r="Z2" s="221"/>
       <c r="AA2" s="283"/>
       <c r="AB2" s="221"/>
-      <c r="AC2" s="326" t="s">
+      <c r="AC2" s="327" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="326"/>
-      <c r="AE2" s="326"/>
-      <c r="AF2" s="326"/>
-      <c r="AG2" s="326"/>
-      <c r="AH2" s="326"/>
-      <c r="AI2" s="326"/>
-      <c r="AJ2" s="326"/>
-      <c r="AK2" s="326"/>
-      <c r="AL2" s="330"/>
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="327"/>
+      <c r="AG2" s="327"/>
+      <c r="AH2" s="327"/>
+      <c r="AI2" s="327"/>
+      <c r="AJ2" s="327"/>
+      <c r="AK2" s="327"/>
+      <c r="AL2" s="331"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="F3" s="197" t="s">
@@ -4342,10 +4342,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="326" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="325"/>
+      <c r="B4" s="326"/>
       <c r="C4" s="268"/>
       <c r="D4" s="268"/>
       <c r="F4" s="197"/>
@@ -12667,50 +12667,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="343" t="s">
+      <c r="A5" s="344" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="344"/>
-      <c r="L5" s="344"/>
-      <c r="M5" s="344"/>
-      <c r="N5" s="344"/>
-      <c r="O5" s="344"/>
-      <c r="P5" s="344"/>
-      <c r="Q5" s="344"/>
-      <c r="R5" s="344"/>
-      <c r="S5" s="344"/>
+      <c r="B5" s="345"/>
+      <c r="C5" s="345"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="345"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="345"/>
+      <c r="J5" s="345"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="345"/>
+      <c r="M5" s="345"/>
+      <c r="N5" s="345"/>
+      <c r="O5" s="345"/>
+      <c r="P5" s="345"/>
+      <c r="Q5" s="345"/>
+      <c r="R5" s="345"/>
+      <c r="S5" s="345"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="345" t="s">
+      <c r="A6" s="346" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="345"/>
-      <c r="C6" s="345"/>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="345"/>
-      <c r="L6" s="345"/>
-      <c r="M6" s="345"/>
-      <c r="N6" s="345"/>
-      <c r="O6" s="345"/>
-      <c r="P6" s="345"/>
-      <c r="Q6" s="345"/>
-      <c r="R6" s="345"/>
-      <c r="S6" s="345"/>
+      <c r="B6" s="346"/>
+      <c r="C6" s="346"/>
+      <c r="D6" s="346"/>
+      <c r="E6" s="346"/>
+      <c r="F6" s="346"/>
+      <c r="G6" s="346"/>
+      <c r="H6" s="346"/>
+      <c r="I6" s="346"/>
+      <c r="J6" s="346"/>
+      <c r="K6" s="346"/>
+      <c r="L6" s="346"/>
+      <c r="M6" s="346"/>
+      <c r="N6" s="346"/>
+      <c r="O6" s="346"/>
+      <c r="P6" s="346"/>
+      <c r="Q6" s="346"/>
+      <c r="R6" s="346"/>
+      <c r="S6" s="346"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -12751,8 +12751,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="346"/>
-      <c r="S8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="348"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130"/>
@@ -12823,30 +12823,30 @@
       <c r="F11" s="102">
         <v>409.42099999999999</v>
       </c>
-      <c r="G11" s="368">
+      <c r="G11" s="325">
         <v>458.46899999999999</v>
       </c>
-      <c r="H11" s="368">
+      <c r="H11" s="325">
         <v>507.26100000000002</v>
       </c>
-      <c r="I11" s="368">
+      <c r="I11" s="325">
         <v>514.14599999999996</v>
       </c>
-      <c r="J11" s="368">
+      <c r="J11" s="325">
         <v>491.86900000000003</v>
       </c>
-      <c r="K11" s="368">
+      <c r="K11" s="325">
         <v>503.505</v>
       </c>
-      <c r="L11" s="368">
+      <c r="L11" s="325">
         <v>533.43499999999995</v>
       </c>
-      <c r="M11" s="368"/>
-      <c r="N11" s="368"/>
-      <c r="O11" s="368"/>
-      <c r="P11" s="368"/>
-      <c r="Q11" s="368"/>
-      <c r="R11" s="368"/>
+      <c r="M11" s="325"/>
+      <c r="N11" s="325"/>
+      <c r="O11" s="325"/>
+      <c r="P11" s="325"/>
+      <c r="Q11" s="325"/>
+      <c r="R11" s="325"/>
       <c r="S11" s="25"/>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13017,10 +13017,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="328" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="327"/>
+      <c r="B1" s="328"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -13028,18 +13028,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="348" t="s">
+      <c r="Z1" s="349" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="348"/>
-      <c r="AB1" s="348"/>
-      <c r="AC1" s="326"/>
-      <c r="AD1" s="326"/>
-      <c r="AE1" s="326"/>
-      <c r="AF1" s="326"/>
+      <c r="AA1" s="349"/>
+      <c r="AB1" s="349"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="327"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="349" t="s">
+      <c r="A2" s="350" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="107"/>
@@ -13048,45 +13048,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="349"/>
+      <c r="A3" s="350"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="349"/>
+      <c r="A4" s="350"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="349"/>
+      <c r="A5" s="350"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C7" s="339" t="s">
+      <c r="C7" s="340" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="339" t="s">
+      <c r="D7" s="341"/>
+      <c r="E7" s="341"/>
+      <c r="F7" s="342"/>
+      <c r="G7" s="340" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="339" t="s">
+      <c r="H7" s="341"/>
+      <c r="I7" s="341"/>
+      <c r="J7" s="342"/>
+      <c r="K7" s="340" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="340"/>
-      <c r="N7" s="341"/>
+      <c r="L7" s="341"/>
+      <c r="M7" s="341"/>
+      <c r="N7" s="342"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -14968,88 +14968,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="356" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="350"/>
-      <c r="G2" s="350"/>
-      <c r="H2" s="350"/>
-      <c r="I2" s="350"/>
-      <c r="J2" s="350"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="356"/>
+      <c r="H2" s="356"/>
+      <c r="I2" s="356"/>
+      <c r="J2" s="356"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="356" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
+      <c r="B3" s="356"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="356"/>
+      <c r="F3" s="356"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="356"/>
+      <c r="I3" s="356"/>
+      <c r="J3" s="356"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="351"/>
-      <c r="B4" s="351"/>
-      <c r="C4" s="351"/>
-      <c r="D4" s="351"/>
-      <c r="E4" s="351"/>
-      <c r="F4" s="351"/>
-      <c r="G4" s="351"/>
-      <c r="H4" s="351"/>
-      <c r="I4" s="351"/>
-      <c r="J4" s="351"/>
-      <c r="K4" s="356" t="s">
+      <c r="A4" s="357"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
+      <c r="F4" s="357"/>
+      <c r="G4" s="357"/>
+      <c r="H4" s="357"/>
+      <c r="I4" s="357"/>
+      <c r="J4" s="357"/>
+      <c r="K4" s="362" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="356"/>
-      <c r="M4" s="356"/>
-      <c r="N4" s="356"/>
+      <c r="L4" s="362"/>
+      <c r="M4" s="362"/>
+      <c r="N4" s="362"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="352" t="s">
+      <c r="C5" s="358" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="353"/>
-      <c r="E5" s="353"/>
-      <c r="F5" s="353"/>
-      <c r="G5" s="353"/>
-      <c r="H5" s="353"/>
-      <c r="I5" s="353"/>
-      <c r="J5" s="354"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="359"/>
+      <c r="I5" s="359"/>
+      <c r="J5" s="360"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="355" t="s">
+      <c r="L5" s="361" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="326"/>
-      <c r="N5" s="326"/>
+      <c r="M5" s="327"/>
+      <c r="N5" s="327"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="358">
+      <c r="C6" s="352">
         <v>2020</v>
       </c>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="359"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="360"/>
+      <c r="D6" s="353"/>
+      <c r="E6" s="353"/>
+      <c r="F6" s="353"/>
+      <c r="G6" s="353"/>
+      <c r="H6" s="353"/>
+      <c r="I6" s="353"/>
+      <c r="J6" s="354"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15487,24 +15487,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="326" t="s">
+      <c r="K22" s="327" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="326"/>
-      <c r="M22" s="326"/>
-      <c r="N22" s="326"/>
-      <c r="O22" s="326" t="s">
+      <c r="L22" s="327"/>
+      <c r="M22" s="327"/>
+      <c r="N22" s="327"/>
+      <c r="O22" s="327" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="326"/>
-      <c r="Q22" s="326"/>
-      <c r="R22" s="326"/>
-      <c r="S22" s="326" t="s">
+      <c r="P22" s="327"/>
+      <c r="Q22" s="327"/>
+      <c r="R22" s="327"/>
+      <c r="S22" s="327" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="326"/>
-      <c r="U22" s="326"/>
-      <c r="V22" s="326"/>
+      <c r="T22" s="327"/>
+      <c r="U22" s="327"/>
+      <c r="V22" s="327"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="67"/>
@@ -15521,12 +15521,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="361" t="s">
+      <c r="K23" s="355" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="361"/>
-      <c r="M23" s="361"/>
-      <c r="N23" s="361"/>
+      <c r="L23" s="355"/>
+      <c r="M23" s="355"/>
+      <c r="N23" s="355"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15695,7 +15695,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="357" t="s">
+      <c r="I28" s="351" t="s">
         <v>258</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15745,7 +15745,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="357"/>
+      <c r="I29" s="351"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15793,7 +15793,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="357"/>
+      <c r="I30" s="351"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15841,7 +15841,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="357"/>
+      <c r="I31" s="351"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15903,7 +15903,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="357" t="s">
+      <c r="I33" s="351" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15951,7 +15951,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="357"/>
+      <c r="I34" s="351"/>
       <c r="J34" t="s">
         <v>259</v>
       </c>
@@ -16188,6 +16188,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16195,12 +16201,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16307,30 +16307,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="365" t="s">
+      <c r="E6" s="364" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="365"/>
-      <c r="G6" s="365"/>
-      <c r="H6" s="365"/>
-      <c r="I6" s="365"/>
-      <c r="J6" s="365"/>
-      <c r="K6" s="365"/>
-      <c r="L6" s="365"/>
-      <c r="M6" s="365"/>
-      <c r="N6" s="365"/>
-      <c r="O6" s="365"/>
-      <c r="P6" s="365"/>
-      <c r="Q6" s="365"/>
-      <c r="R6" s="365"/>
+      <c r="F6" s="364"/>
+      <c r="G6" s="364"/>
+      <c r="H6" s="364"/>
+      <c r="I6" s="364"/>
+      <c r="J6" s="364"/>
+      <c r="K6" s="364"/>
+      <c r="L6" s="364"/>
+      <c r="M6" s="364"/>
+      <c r="N6" s="364"/>
+      <c r="O6" s="364"/>
+      <c r="P6" s="364"/>
+      <c r="Q6" s="364"/>
+      <c r="R6" s="364"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="362" t="s">
+      <c r="A7" s="363" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="362"/>
-      <c r="C7" s="362"/>
-      <c r="D7" s="362"/>
+      <c r="B7" s="363"/>
+      <c r="C7" s="363"/>
+      <c r="D7" s="363"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -16348,11 +16348,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
-      <c r="B8" s="362" t="s">
+      <c r="B8" s="363" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -16398,11 +16398,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
-      <c r="B9" s="362" t="s">
+      <c r="B9" s="363" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="362"/>
-      <c r="D9" s="362"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16448,11 +16448,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
-      <c r="B10" s="362" t="s">
+      <c r="B10" s="363" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="362"/>
-      <c r="D10" s="362"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16498,11 +16498,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
-      <c r="B11" s="362" t="s">
+      <c r="B11" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="362"/>
-      <c r="D11" s="362"/>
+      <c r="C11" s="363"/>
+      <c r="D11" s="363"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16597,10 +16597,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="362" t="s">
+      <c r="C13" s="363" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="362"/>
+      <c r="D13" s="363"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16751,11 +16751,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
-      <c r="B19" s="362" t="s">
+      <c r="B19" s="363" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="362"/>
-      <c r="D19" s="362"/>
+      <c r="C19" s="363"/>
+      <c r="D19" s="363"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -16814,11 +16814,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
-      <c r="B20" s="362" t="s">
+      <c r="B20" s="363" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="362"/>
-      <c r="D20" s="362"/>
+      <c r="C20" s="363"/>
+      <c r="D20" s="363"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16878,11 +16878,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
-      <c r="B21" s="362" t="s">
+      <c r="B21" s="363" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="362"/>
-      <c r="D21" s="362"/>
+      <c r="C21" s="363"/>
+      <c r="D21" s="363"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -16941,11 +16941,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
-      <c r="B22" s="362" t="s">
+      <c r="B22" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="362"/>
-      <c r="D22" s="362"/>
+      <c r="C22" s="363"/>
+      <c r="D22" s="363"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -17058,21 +17058,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="363" t="s">
+      <c r="H27" s="365" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="363"/>
-      <c r="J27" s="363"/>
-      <c r="K27" s="363"/>
-      <c r="L27" s="363"/>
-      <c r="M27" s="363"/>
-      <c r="N27" s="363"/>
-      <c r="O27" s="363"/>
-      <c r="P27" s="363"/>
-      <c r="Q27" s="363"/>
-      <c r="R27" s="363"/>
-      <c r="S27" s="363"/>
-      <c r="T27" s="363"/>
+      <c r="I27" s="365"/>
+      <c r="J27" s="365"/>
+      <c r="K27" s="365"/>
+      <c r="L27" s="365"/>
+      <c r="M27" s="365"/>
+      <c r="N27" s="365"/>
+      <c r="O27" s="365"/>
+      <c r="P27" s="365"/>
+      <c r="Q27" s="365"/>
+      <c r="R27" s="365"/>
+      <c r="S27" s="365"/>
+      <c r="T27" s="365"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -17388,21 +17388,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="364" t="s">
+      <c r="F37" s="366" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="364"/>
-      <c r="H37" s="364"/>
-      <c r="I37" s="364"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="364"/>
-      <c r="L37" s="364"/>
-      <c r="M37" s="364"/>
-      <c r="N37" s="364"/>
-      <c r="O37" s="364"/>
-      <c r="P37" s="364"/>
-      <c r="Q37" s="364"/>
-      <c r="R37" s="364"/>
+      <c r="G37" s="366"/>
+      <c r="H37" s="366"/>
+      <c r="I37" s="366"/>
+      <c r="J37" s="366"/>
+      <c r="K37" s="366"/>
+      <c r="L37" s="366"/>
+      <c r="M37" s="366"/>
+      <c r="N37" s="366"/>
+      <c r="O37" s="366"/>
+      <c r="P37" s="366"/>
+      <c r="Q37" s="366"/>
+      <c r="R37" s="366"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17718,21 +17718,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="363" t="s">
+      <c r="F48" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="363"/>
-      <c r="H48" s="363"/>
-      <c r="I48" s="363"/>
-      <c r="J48" s="363"/>
-      <c r="K48" s="363"/>
-      <c r="L48" s="363"/>
-      <c r="M48" s="363"/>
-      <c r="N48" s="363"/>
-      <c r="O48" s="363"/>
-      <c r="P48" s="363"/>
-      <c r="Q48" s="363"/>
-      <c r="R48" s="363"/>
+      <c r="G48" s="365"/>
+      <c r="H48" s="365"/>
+      <c r="I48" s="365"/>
+      <c r="J48" s="365"/>
+      <c r="K48" s="365"/>
+      <c r="L48" s="365"/>
+      <c r="M48" s="365"/>
+      <c r="N48" s="365"/>
+      <c r="O48" s="365"/>
+      <c r="P48" s="365"/>
+      <c r="Q48" s="365"/>
+      <c r="R48" s="365"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -18044,12 +18044,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18058,6 +18052,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18096,50 +18096,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="343" t="s">
+      <c r="A5" s="344" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="344"/>
-      <c r="L5" s="344"/>
-      <c r="M5" s="344"/>
-      <c r="N5" s="344"/>
-      <c r="O5" s="344"/>
-      <c r="P5" s="344"/>
-      <c r="Q5" s="344"/>
-      <c r="R5" s="344"/>
-      <c r="S5" s="344"/>
+      <c r="B5" s="345"/>
+      <c r="C5" s="345"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="345"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="345"/>
+      <c r="J5" s="345"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="345"/>
+      <c r="M5" s="345"/>
+      <c r="N5" s="345"/>
+      <c r="O5" s="345"/>
+      <c r="P5" s="345"/>
+      <c r="Q5" s="345"/>
+      <c r="R5" s="345"/>
+      <c r="S5" s="345"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="345" t="s">
+      <c r="A6" s="346" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="345"/>
-      <c r="C6" s="345"/>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="345"/>
-      <c r="L6" s="345"/>
-      <c r="M6" s="345"/>
-      <c r="N6" s="345"/>
-      <c r="O6" s="345"/>
-      <c r="P6" s="345"/>
-      <c r="Q6" s="345"/>
-      <c r="R6" s="345"/>
-      <c r="S6" s="345"/>
+      <c r="B6" s="346"/>
+      <c r="C6" s="346"/>
+      <c r="D6" s="346"/>
+      <c r="E6" s="346"/>
+      <c r="F6" s="346"/>
+      <c r="G6" s="346"/>
+      <c r="H6" s="346"/>
+      <c r="I6" s="346"/>
+      <c r="J6" s="346"/>
+      <c r="K6" s="346"/>
+      <c r="L6" s="346"/>
+      <c r="M6" s="346"/>
+      <c r="N6" s="346"/>
+      <c r="O6" s="346"/>
+      <c r="P6" s="346"/>
+      <c r="Q6" s="346"/>
+      <c r="R6" s="346"/>
+      <c r="S6" s="346"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -18179,10 +18179,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="346" t="s">
+      <c r="R8" s="347" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="347"/>
+      <c r="S8" s="348"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
@@ -21053,10 +21053,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="366" t="s">
+      <c r="D75" s="367" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="367"/>
+      <c r="E75" s="368"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -22003,11 +22003,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22026,23 +22026,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="335" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="335"/>
+      <c r="B1" s="336"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="342" t="s">
+      <c r="J1" s="343" t="s">
         <v>280</v>
       </c>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
+      <c r="V1" s="327"/>
+      <c r="W1" s="327"/>
+      <c r="X1" s="327"/>
+      <c r="Y1" s="327"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="337" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -22050,68 +22050,68 @@
         <v>192</v>
       </c>
       <c r="I2" s="241"/>
-      <c r="J2" s="342"/>
+      <c r="J2" s="343"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" s="337"/>
+      <c r="A3" s="338"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="I3" s="241"/>
-      <c r="J3" s="342"/>
+      <c r="J3" s="343"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A4" s="337"/>
+      <c r="A4" s="338"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A5" s="338"/>
+      <c r="A5" s="339"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C7" s="339" t="s">
+      <c r="C7" s="340" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="339" t="s">
+      <c r="D7" s="341"/>
+      <c r="E7" s="341"/>
+      <c r="F7" s="342"/>
+      <c r="G7" s="340" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="339" t="s">
+      <c r="H7" s="341"/>
+      <c r="I7" s="341"/>
+      <c r="J7" s="342"/>
+      <c r="K7" s="340" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="340"/>
-      <c r="N7" s="340"/>
-      <c r="O7" s="339" t="s">
+      <c r="L7" s="341"/>
+      <c r="M7" s="341"/>
+      <c r="N7" s="341"/>
+      <c r="O7" s="340" t="s">
         <v>270</v>
       </c>
-      <c r="P7" s="340"/>
-      <c r="Q7" s="340"/>
-      <c r="R7" s="340"/>
-      <c r="S7" s="339" t="s">
+      <c r="P7" s="341"/>
+      <c r="Q7" s="341"/>
+      <c r="R7" s="341"/>
+      <c r="S7" s="340" t="s">
         <v>274</v>
       </c>
-      <c r="T7" s="340"/>
-      <c r="U7" s="340"/>
-      <c r="V7" s="340"/>
-      <c r="W7" s="339" t="s">
+      <c r="T7" s="341"/>
+      <c r="U7" s="341"/>
+      <c r="V7" s="341"/>
+      <c r="W7" s="340" t="s">
         <v>275</v>
       </c>
-      <c r="X7" s="340"/>
-      <c r="Y7" s="340"/>
-      <c r="Z7" s="340"/>
+      <c r="X7" s="341"/>
+      <c r="Y7" s="341"/>
+      <c r="Z7" s="341"/>
       <c r="AA7" s="222" t="s">
         <v>276</v>
       </c>
@@ -27697,36 +27697,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D1" s="326" t="s">
+      <c r="D1" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326" t="s">
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326" t="s">
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326" t="s">
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326" t="s">
+      <c r="Q1" s="327"/>
+      <c r="R1" s="327"/>
+      <c r="S1" s="327"/>
+      <c r="T1" s="327" t="s">
         <v>266</v>
       </c>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
+      <c r="U1" s="327"/>
+      <c r="V1" s="327"/>
+      <c r="W1" s="327"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D2" s="197" t="s">
@@ -28136,22 +28136,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="335" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="335"/>
+      <c r="B1" s="336"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="342" t="s">
+      <c r="J1" s="343" t="s">
         <v>280</v>
       </c>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
+      <c r="V1" s="327"/>
+      <c r="W1" s="327"/>
+      <c r="X1" s="327"/>
+      <c r="Y1" s="327"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="337" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -28160,20 +28160,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
-      <c r="J2" s="342"/>
+      <c r="J2" s="343"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="337"/>
+      <c r="A3" s="338"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
-      <c r="J3" s="342"/>
+      <c r="J3" s="343"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="337"/>
+      <c r="A4" s="338"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
@@ -28183,7 +28183,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="338"/>
+      <c r="A5" s="339"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
@@ -28198,42 +28198,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="339" t="s">
+      <c r="C7" s="340" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="339" t="s">
+      <c r="D7" s="341"/>
+      <c r="E7" s="341"/>
+      <c r="F7" s="342"/>
+      <c r="G7" s="340" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="339" t="s">
+      <c r="H7" s="341"/>
+      <c r="I7" s="341"/>
+      <c r="J7" s="342"/>
+      <c r="K7" s="340" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="340"/>
-      <c r="N7" s="340"/>
-      <c r="O7" s="339" t="s">
+      <c r="L7" s="341"/>
+      <c r="M7" s="341"/>
+      <c r="N7" s="341"/>
+      <c r="O7" s="340" t="s">
         <v>270</v>
       </c>
-      <c r="P7" s="340"/>
-      <c r="Q7" s="340"/>
-      <c r="R7" s="340"/>
-      <c r="S7" s="339" t="s">
+      <c r="P7" s="341"/>
+      <c r="Q7" s="341"/>
+      <c r="R7" s="341"/>
+      <c r="S7" s="340" t="s">
         <v>274</v>
       </c>
-      <c r="T7" s="340"/>
-      <c r="U7" s="340"/>
-      <c r="V7" s="340"/>
-      <c r="W7" s="339" t="s">
+      <c r="T7" s="341"/>
+      <c r="U7" s="341"/>
+      <c r="V7" s="341"/>
+      <c r="W7" s="340" t="s">
         <v>275</v>
       </c>
-      <c r="X7" s="340"/>
-      <c r="Y7" s="340"/>
-      <c r="Z7" s="340"/>
+      <c r="X7" s="341"/>
+      <c r="Y7" s="341"/>
+      <c r="Z7" s="341"/>
       <c r="AA7" s="222" t="s">
         <v>276</v>
       </c>
@@ -32770,6 +32770,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -32986,22 +33001,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33018,29 +33043,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>